--- a/bank statement generator/bank_statements/statement_65.xlsx
+++ b/bank statement generator/bank_statements/statement_65.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 29.07.2024</t>
+          <t>KONTOSTAND AM 08.08.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,66 +759,66 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>02.08.</t>
+          <t>09.08.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>03.08.</t>
+          <t>10.08.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 28269177</t>
+          <t>KARTENZ./09.08 LIDL RO</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>83,70-</t>
+          <t>63,07-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>05.08.</t>
+          <t>12.08.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>06.08.</t>
+          <t>13.08.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG JET TANKSTELLE</t>
+          <t>RECHNUNG VODAFONE GMBH 21929341</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>42,67-</t>
+          <t>39,94-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>06.08.</t>
+          <t>16.08.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>07.08.</t>
+          <t>17.08.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>KARTENZ./16.08 REWE RO</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>26,71-</t>
+          <t>148,99-</t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 08.08.2024</t>
+          <t>KONTOSTAND AM 20.08.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>153,08-</t>
+          <t>252,00-</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 14.08.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 28.08.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
